--- a/tut05/output/0501EE22.xlsx
+++ b/tut05/output/0501EE22.xlsx
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.755102040816326</v>
+        <v>7.76</v>
       </c>
       <c r="C6" t="n">
-        <v>7.977272727272728</v>
+        <v>7.98</v>
       </c>
       <c r="D6" t="n">
-        <v>8.217391304347826</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.755102040816326</v>
+        <v>7.76</v>
       </c>
       <c r="C8" t="n">
-        <v>7.860215053763441</v>
+        <v>7.86</v>
       </c>
       <c r="D8" t="n">
-        <v>7.97841726618705</v>
+        <v>7.98</v>
       </c>
       <c r="E8" t="n">
-        <v>5.994594594594594</v>
+        <v>5.99</v>
       </c>
     </row>
   </sheetData>
